--- a/analysis/pre_gemini_data/particiapnt230/task_hard.xlsx
+++ b/analysis/pre_gemini_data/particiapnt230/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,212 +422,208 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condstte5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdocall1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methdocall3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methdocall4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methdocall5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var11</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var14</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var15</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -700,7 +684,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -710,23 +694,21 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -741,10 +723,10 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
@@ -753,23 +735,23 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
         <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -780,9 +762,7 @@
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
         <v>0</v>
@@ -800,7 +780,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -810,23 +790,21 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I4" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="n">
         <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -841,10 +819,10 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="T4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U4" t="n">
         <v>7</v>
@@ -853,23 +831,23 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
         <v>4</v>
       </c>
       <c r="AB4" t="n">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
@@ -880,9 +858,7 @@
       <c r="AJ4" t="n">
         <v>3</v>
       </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
         <v>1</v>
@@ -900,7 +876,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3028.16</v>
+        <v>2127.19</v>
       </c>
       <c r="C5" t="n">
         <v>350.33</v>
@@ -910,23 +886,21 @@
       <c r="F5" t="n">
         <v>133.5</v>
       </c>
-      <c r="G5" t="n">
-        <v>283.63</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>39800</v>
+        <v>33834.31</v>
       </c>
       <c r="I5" t="n">
-        <v>20530.83</v>
+        <v>17935.75</v>
       </c>
       <c r="J5" t="n">
-        <v>7208.02</v>
+        <v>5823.06</v>
       </c>
       <c r="K5" t="n">
         <v>4654.98</v>
       </c>
       <c r="L5" t="n">
-        <v>4338.63</v>
+        <v>4004.6</v>
       </c>
       <c r="M5" t="n">
         <v>400.34</v>
@@ -941,10 +915,10 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>14148.5</v>
+        <v>12387.93</v>
       </c>
       <c r="T5" t="n">
-        <v>9777.42</v>
+        <v>8225.59</v>
       </c>
       <c r="U5" t="n">
         <v>3003.1</v>
@@ -953,23 +927,23 @@
         <v>2102.35</v>
       </c>
       <c r="W5" t="n">
-        <v>967.79</v>
+        <v>834.42</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>1301.36</v>
+        <v>1134.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10777.9</v>
+        <v>8425.280000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>1108.87</v>
       </c>
       <c r="AB5" t="n">
-        <v>40874.4</v>
+        <v>13170.47</v>
       </c>
       <c r="AC5" t="n">
-        <v>2402.66</v>
+        <v>1918.67</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
@@ -980,9 +954,7 @@
       <c r="AJ5" t="n">
         <v>600.62</v>
       </c>
-      <c r="AK5" t="n">
-        <v>183.83</v>
-      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
         <v>133.5</v>
@@ -1000,36 +972,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>12.19</v>
+        <v>17.04</v>
       </c>
       <c r="I6" t="n">
-        <v>6.29</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2.21</v>
+        <v>2.93</v>
       </c>
       <c r="K6" t="n">
-        <v>1.43</v>
+        <v>2.34</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>2.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
@@ -1037,39 +1007,39 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>4.33</v>
+        <v>6.24</v>
       </c>
       <c r="T6" t="n">
-        <v>2.99</v>
+        <v>4.14</v>
       </c>
       <c r="U6" t="n">
-        <v>0.92</v>
+        <v>1.51</v>
       </c>
       <c r="V6" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.3</v>
+        <v>4.24</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.52</v>
+        <v>6.63</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
@@ -1078,18 +1048,16 @@
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.06</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AP6" t="inlineStr"/>
     </row>
@@ -1100,7 +1068,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>432.59</v>
+        <v>354.53</v>
       </c>
       <c r="C7" t="n">
         <v>175.17</v>
@@ -1110,23 +1078,21 @@
       <c r="F7" t="n">
         <v>133.5</v>
       </c>
-      <c r="G7" t="n">
-        <v>283.63</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>294.81</v>
+        <v>294.21</v>
       </c>
       <c r="I7" t="n">
-        <v>285.15</v>
+        <v>304</v>
       </c>
       <c r="J7" t="n">
-        <v>400.45</v>
+        <v>363.94</v>
       </c>
       <c r="K7" t="n">
         <v>387.91</v>
       </c>
       <c r="L7" t="n">
-        <v>394.42</v>
+        <v>444.96</v>
       </c>
       <c r="M7" t="n">
         <v>200.17</v>
@@ -1141,10 +1107,10 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>288.74</v>
+        <v>317.64</v>
       </c>
       <c r="T7" t="n">
-        <v>362.13</v>
+        <v>342.73</v>
       </c>
       <c r="U7" t="n">
         <v>429.01</v>
@@ -1153,23 +1119,23 @@
         <v>525.59</v>
       </c>
       <c r="W7" t="n">
-        <v>483.9</v>
+        <v>834.42</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>325.34</v>
+        <v>378.17</v>
       </c>
       <c r="Z7" t="n">
-        <v>359.26</v>
+        <v>337.01</v>
       </c>
       <c r="AA7" t="n">
         <v>277.22</v>
       </c>
       <c r="AB7" t="n">
-        <v>257.07</v>
+        <v>274.38</v>
       </c>
       <c r="AC7" t="n">
-        <v>343.24</v>
+        <v>319.78</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
@@ -1180,9 +1146,7 @@
       <c r="AJ7" t="n">
         <v>200.21</v>
       </c>
-      <c r="AK7" t="n">
-        <v>183.83</v>
-      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
         <v>133.5</v>
@@ -1210,9 +1174,7 @@
       <c r="F8" t="n">
         <v>133.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>283.63</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>66.7</v>
       </c>
@@ -1280,9 +1242,7 @@
       <c r="AJ8" t="n">
         <v>266.94</v>
       </c>
-      <c r="AK8" t="n">
-        <v>183.83</v>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
         <v>133.5</v>
@@ -1337,94 +1297,6 @@
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
